--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/集体资本金.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/集体资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,383 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>14.91586</v>
-      </c>
-      <c r="C2" t="n">
-        <v>17.04231</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.80365</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.06851</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.44499</v>
-      </c>
-      <c r="G2" t="n">
-        <v>9.431190000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.41712</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.8082</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.87733</v>
-      </c>
-      <c r="K2" t="n">
-        <v>161.1503</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.43573</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.39091</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.26872</v>
-      </c>
-      <c r="O2" t="n">
-        <v>6.45244</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.72743</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.3531</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.03971</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.22263</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.09497999999999999</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.27365</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.29911</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.05581</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.61368</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10.96095</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>8.17529</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>11.34825</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.76473</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.10699</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.42567</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>9.699059999999999</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.81018</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2.14674</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>4.0936</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>14.30439</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.2421</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>2.47292</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>9.57413</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>4.13201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.50126</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.22467</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6.45561</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12.63353</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.84118</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>1.99252</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10.6171</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.30082</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.54612</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.28035</v>
-      </c>
-      <c r="K3" t="n">
-        <v>183.48246</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.51578</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.30773</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.44084</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5.99163</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.39366</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.206</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.98309</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.65691</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.04794</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.68037</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.41603</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.55533</v>
-      </c>
-      <c r="X3" t="n">
-        <v>4.08212</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>25.58286</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>12.55801</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>12.1259</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.28511</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3.55072</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.16384</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>10.43723</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.58985</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1.78504</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>5.24663</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9.753629999999999</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.35407</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>6.19463</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>13.92267</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>3.99153</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.50727</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.36251</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5.15301</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13.66801</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.77919</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>2.1181</v>
-      </c>
-      <c r="G4" t="n">
-        <v>19.12733</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.15961</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.7026</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.73488</v>
-      </c>
-      <c r="K4" t="n">
-        <v>179.10793</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.40141</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.3768</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.57565</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6.919</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.275</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.77291</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5.67769</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.92215</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.07374</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.00066</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.22656</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.02407</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8.04754</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>28.06469</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.52099</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>5.74754</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.47183</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.80621</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.02283</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>9.263669999999999</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2.92578</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2.80095</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>5.1964</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>11.61731</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.66278</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>6.94367</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>7.61559</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>3.1005</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.36773</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.24355</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
